--- a/Team-Data/2008-09/1-13-2008-09.xlsx
+++ b/Team-Data/2008-09/1-13-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,61 +733,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.595</v>
+        <v>0.611</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J2" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L2" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O2" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="P2" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q2" t="n">
         <v>0.741</v>
       </c>
       <c r="R2" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T2" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U2" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="V2" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W2" t="n">
         <v>6.9</v>
@@ -729,43 +796,43 @@
         <v>4.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z2" t="n">
         <v>19.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -780,40 +847,40 @@
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX2" t="n">
         <v>17</v>
       </c>
-      <c r="AS2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>18</v>
-      </c>
       <c r="AY2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.769</v>
+        <v>0.775</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -872,64 +939,64 @@
         <v>0.477</v>
       </c>
       <c r="L3" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M3" t="n">
         <v>16.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.371</v>
+        <v>0.367</v>
       </c>
       <c r="O3" t="n">
         <v>21.2</v>
       </c>
       <c r="P3" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
         <v>11</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="T3" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U3" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="V3" t="n">
         <v>16.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>4</v>
@@ -938,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -950,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>18</v>
@@ -965,19 +1032,19 @@
         <v>5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>15</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
         <v>4</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
         <v>29</v>
@@ -989,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1001,7 +1068,7 @@
         <v>10</v>
       </c>
       <c r="BC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -1030,67 +1097,67 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
         <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>0.385</v>
+        <v>0.368</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="J4" t="n">
         <v>75.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M4" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="N4" t="n">
         <v>0.352</v>
       </c>
       <c r="O4" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P4" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R4" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="T4" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="U4" t="n">
         <v>19.9</v>
       </c>
       <c r="V4" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
@@ -1099,19 +1166,19 @@
         <v>21.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.09999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
@@ -1120,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1141,7 +1208,7 @@
         <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>14</v>
@@ -1153,16 +1220,16 @@
         <v>22</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
         <v>19</v>
@@ -1177,7 +1244,7 @@
         <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
         <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>0.405</v>
+        <v>0.421</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,79 +1297,79 @@
         <v>37</v>
       </c>
       <c r="J5" t="n">
-        <v>84.2</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L5" t="n">
         <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O5" t="n">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.801</v>
+        <v>0.798</v>
       </c>
       <c r="R5" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S5" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>10</v>
@@ -1311,22 +1378,22 @@
         <v>4</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
         <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>6</v>
@@ -1335,13 +1402,13 @@
         <v>13</v>
       </c>
       <c r="AS5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT5" t="n">
         <v>15</v>
       </c>
       <c r="AU5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
         <v>19</v>
@@ -1353,13 +1420,13 @@
         <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
         <v>13</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -1397,58 +1464,58 @@
         <v>35</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.857</v>
+        <v>0.829</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J6" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
       <c r="L6" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.359</v>
+        <v>0.35</v>
       </c>
       <c r="O6" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.76</v>
+        <v>0.763</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S6" t="n">
         <v>30.8</v>
       </c>
       <c r="T6" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U6" t="n">
         <v>20.5</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="W6" t="n">
         <v>8.300000000000001</v>
@@ -1457,37 +1524,37 @@
         <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
         <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.9</v>
+        <v>101.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ6" t="n">
         <v>24</v>
@@ -1496,25 +1563,25 @@
         <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>16</v>
       </c>
       <c r="AR6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,25 +1593,25 @@
         <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
         <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.579</v>
+        <v>0.595</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,10 +1661,10 @@
         <v>37.7</v>
       </c>
       <c r="J7" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L7" t="n">
         <v>6.9</v>
@@ -1609,64 +1676,64 @@
         <v>0.332</v>
       </c>
       <c r="O7" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P7" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8070000000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S7" t="n">
         <v>32.4</v>
       </c>
       <c r="T7" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V7" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W7" t="n">
         <v>7.1</v>
       </c>
       <c r="X7" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB7" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
@@ -1681,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN7" t="n">
         <v>25</v>
@@ -1699,16 +1766,16 @@
         <v>9</v>
       </c>
       <c r="AS7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT7" t="n">
         <v>2</v>
       </c>
-      <c r="AT7" t="n">
-        <v>1</v>
-      </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
         <v>18</v>
@@ -1717,10 +1784,10 @@
         <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -1758,43 +1825,43 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
         <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.658</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J8" t="n">
         <v>77.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L8" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M8" t="n">
         <v>17.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.382</v>
+        <v>0.384</v>
       </c>
       <c r="O8" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="P8" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="Q8" t="n">
         <v>0.76</v>
@@ -1806,19 +1873,19 @@
         <v>30.5</v>
       </c>
       <c r="T8" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U8" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V8" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W8" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y8" t="n">
         <v>5.7</v>
@@ -1827,16 +1894,16 @@
         <v>22.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1845,7 +1912,7 @@
         <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
         <v>26</v>
@@ -1857,7 +1924,7 @@
         <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL8" t="n">
         <v>14</v>
@@ -1866,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS8" t="n">
         <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU8" t="n">
         <v>4</v>
@@ -1893,25 +1960,25 @@
         <v>22</v>
       </c>
       <c r="AW8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX8" t="n">
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
         <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.611</v>
+        <v>0.629</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J9" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L9" t="n">
         <v>4.8</v>
@@ -1973,19 +2040,19 @@
         <v>0.346</v>
       </c>
       <c r="O9" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="P9" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R9" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S9" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T9" t="n">
         <v>40.8</v>
@@ -1997,37 +2064,37 @@
         <v>12.6</v>
       </c>
       <c r="W9" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X9" t="n">
         <v>5.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA9" t="n">
         <v>20.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH9" t="n">
         <v>19</v>
@@ -2036,7 +2103,7 @@
         <v>25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
@@ -2045,22 +2112,22 @@
         <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
         <v>24</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
         <v>23</v>
       </c>
       <c r="AR9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS9" t="n">
         <v>15</v>
@@ -2069,7 +2136,7 @@
         <v>19</v>
       </c>
       <c r="AU9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV9" t="n">
         <v>2</v>
@@ -2078,16 +2145,16 @@
         <v>26</v>
       </c>
       <c r="AX9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB9" t="n">
         <v>26</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2242,22 +2309,22 @@
         <v>15</v>
       </c>
       <c r="AR10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT10" t="n">
         <v>12</v>
       </c>
       <c r="AU10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV10" t="n">
         <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
@@ -2266,7 +2333,7 @@
         <v>28</v>
       </c>
       <c r="AZ10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -2304,109 +2371,109 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
         <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.615</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="J11" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L11" t="n">
         <v>7.3</v>
       </c>
       <c r="M11" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O11" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="P11" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R11" t="n">
         <v>10.6</v>
       </c>
       <c r="S11" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T11" t="n">
         <v>42.8</v>
       </c>
       <c r="U11" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V11" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W11" t="n">
         <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y11" t="n">
         <v>5.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM11" t="n">
         <v>10</v>
@@ -2418,7 +2485,7 @@
         <v>8</v>
       </c>
       <c r="AP11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2427,31 +2494,31 @@
         <v>21</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW11" t="n">
         <v>23</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>25</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ11" t="n">
         <v>3</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BB11" t="n">
         <v>21</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2591,13 +2658,13 @@
         <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN12" t="n">
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
         <v>25</v>
@@ -2609,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -2618,22 +2685,22 @@
         <v>3</v>
       </c>
       <c r="AV12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW12" t="n">
         <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2782,7 +2849,7 @@
         <v>25</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ13" t="n">
         <v>25</v>
@@ -2797,7 +2864,7 @@
         <v>14</v>
       </c>
       <c r="AU13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV13" t="n">
         <v>18</v>
@@ -2809,10 +2876,10 @@
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -2865,79 +2932,79 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
         <v>83.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>18.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.375</v>
+        <v>0.379</v>
       </c>
       <c r="O14" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="P14" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R14" t="n">
         <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>32</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.7</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>108</v>
+        <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>28</v>
@@ -2949,10 +3016,10 @@
         <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
         <v>14</v>
@@ -2967,16 +3034,16 @@
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -2985,25 +3052,25 @@
         <v>12</v>
       </c>
       <c r="AW14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>0.289</v>
+        <v>0.297</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="J15" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M15" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="N15" t="n">
-        <v>0.322</v>
+        <v>0.325</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R15" t="n">
         <v>10</v>
@@ -3083,10 +3150,10 @@
         <v>38.2</v>
       </c>
       <c r="U15" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="V15" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W15" t="n">
         <v>7.5</v>
@@ -3095,22 +3162,22 @@
         <v>4.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z15" t="n">
         <v>21.7</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.8</v>
+        <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
@@ -3122,7 +3189,7 @@
         <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>27</v>
@@ -3137,16 +3204,16 @@
         <v>27</v>
       </c>
       <c r="AM15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
         <v>27</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3173,7 +3240,7 @@
         <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" t="n">
         <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.541</v>
+        <v>0.528</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>80.90000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K16" t="n">
         <v>0.447</v>
       </c>
       <c r="L16" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M16" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="P16" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.741</v>
+        <v>0.739</v>
       </c>
       <c r="R16" t="n">
         <v>10.7</v>
@@ -3265,13 +3332,13 @@
         <v>40.6</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V16" t="n">
         <v>12.9</v>
       </c>
       <c r="W16" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>5.6</v>
@@ -3280,10 +3347,10 @@
         <v>4.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AB16" t="n">
         <v>96.59999999999999</v>
@@ -3292,7 +3359,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3304,13 +3371,13 @@
         <v>15</v>
       </c>
       <c r="AH16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>12</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>14</v>
       </c>
       <c r="AK16" t="n">
         <v>19</v>
@@ -3319,28 +3386,28 @@
         <v>15</v>
       </c>
       <c r="AM16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
       </c>
       <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT16" t="n">
         <v>20</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>21</v>
       </c>
       <c r="AU16" t="n">
         <v>26</v>
@@ -3349,16 +3416,16 @@
         <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" t="n">
         <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>0.487</v>
+        <v>0.475</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,10 +3481,10 @@
         <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L17" t="n">
         <v>5.3</v>
@@ -3426,31 +3493,31 @@
         <v>15.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O17" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P17" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U17" t="n">
         <v>21.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W17" t="n">
         <v>6.9</v>
@@ -3462,43 +3529,43 @@
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB17" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="AC17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD17" t="n">
         <v>1</v>
       </c>
-      <c r="AD17" t="n">
-        <v>2</v>
-      </c>
       <c r="AE17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
         <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
         <v>24</v>
@@ -3507,7 +3574,7 @@
         <v>23</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3519,10 +3586,10 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AT17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU17" t="n">
         <v>12</v>
@@ -3531,7 +3598,7 @@
         <v>17</v>
       </c>
       <c r="AW17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -3578,19 +3645,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="n">
         <v>11</v>
       </c>
       <c r="F18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>0.297</v>
+        <v>0.306</v>
       </c>
       <c r="H18" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I18" t="n">
         <v>36.4</v>
@@ -3599,37 +3666,37 @@
         <v>83.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.348</v>
+        <v>0.345</v>
       </c>
       <c r="O18" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="P18" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R18" t="n">
         <v>12.3</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T18" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U18" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V18" t="n">
         <v>14.4</v>
@@ -3647,7 +3714,7 @@
         <v>22.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="n">
         <v>97.7</v>
@@ -3656,13 +3723,13 @@
         <v>-4.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
       </c>
       <c r="AF18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
         <v>24</v>
@@ -3683,19 +3750,19 @@
         <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
@@ -3707,13 +3774,13 @@
         <v>13</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV18" t="n">
         <v>15</v>
       </c>
       <c r="AW18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX18" t="n">
         <v>23</v>
@@ -3725,7 +3792,7 @@
         <v>24</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>-1.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
@@ -3856,16 +3923,16 @@
         <v>24</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN19" t="n">
         <v>11</v>
@@ -3883,7 +3950,7 @@
         <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT19" t="n">
         <v>17</v>
@@ -3895,7 +3962,7 @@
         <v>11</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>3.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
         <v>10</v>
@@ -4035,25 +4102,25 @@
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ20" t="n">
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
       </c>
       <c r="AM20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4071,7 +4138,7 @@
         <v>28</v>
       </c>
       <c r="AU20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
@@ -4089,13 +4156,13 @@
         <v>15</v>
       </c>
       <c r="BA20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB20" t="n">
         <v>23</v>
       </c>
       <c r="BC20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>-3.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>19</v>
@@ -4217,7 +4284,7 @@
         <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -4226,13 +4293,13 @@
         <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
         <v>26</v>
@@ -4250,16 +4317,16 @@
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV21" t="n">
         <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>22</v>
       </c>
       <c r="AZ21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-8.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4417,10 +4484,10 @@
         <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ22" t="n">
         <v>19</v>
@@ -4435,7 +4502,7 @@
         <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -4488,88 +4555,88 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n">
         <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.795</v>
+        <v>0.789</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.3</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.462</v>
+        <v>0.458</v>
       </c>
       <c r="L23" t="n">
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="M23" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.401</v>
+        <v>0.393</v>
       </c>
       <c r="O23" t="n">
         <v>19</v>
       </c>
       <c r="P23" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.721</v>
+        <v>0.719</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S23" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T23" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U23" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="V23" t="n">
         <v>14.2</v>
       </c>
       <c r="W23" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X23" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y23" t="n">
         <v>3.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB23" t="n">
-        <v>102</v>
+        <v>101.1</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE23" t="n">
         <v>2</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
@@ -4581,7 +4648,7 @@
         <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>21</v>
@@ -4590,16 +4657,16 @@
         <v>8</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP23" t="n">
         <v>7</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4617,13 +4684,13 @@
         <v>7</v>
       </c>
       <c r="AU23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW23" t="n">
         <v>14</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>13</v>
       </c>
       <c r="AX23" t="n">
         <v>5</v>
@@ -4632,13 +4699,13 @@
         <v>4</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
       </c>
       <c r="BB23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
         <v>18</v>
@@ -4760,7 +4827,7 @@
         <v>18</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>12</v>
@@ -4781,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
         <v>13</v>
@@ -4793,13 +4860,13 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV24" t="n">
         <v>26</v>
@@ -4811,13 +4878,13 @@
         <v>11</v>
       </c>
       <c r="AY24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ24" t="n">
         <v>9</v>
       </c>
       <c r="BA24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" t="n">
         <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>0.629</v>
+        <v>0.618</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
@@ -4870,76 +4937,76 @@
         <v>38.5</v>
       </c>
       <c r="J25" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0.5</v>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M25" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.399</v>
+        <v>0.394</v>
       </c>
       <c r="O25" t="n">
         <v>20.3</v>
       </c>
       <c r="P25" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R25" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="T25" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U25" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V25" t="n">
         <v>16</v>
       </c>
       <c r="W25" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA25" t="n">
         <v>22.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AF25" t="n">
         <v>7</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
@@ -4954,13 +5021,13 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM25" t="n">
         <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25" t="n">
         <v>6</v>
@@ -4972,7 +5039,7 @@
         <v>22</v>
       </c>
       <c r="AR25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS25" t="n">
         <v>9</v>
@@ -4987,13 +5054,13 @@
         <v>28</v>
       </c>
       <c r="AW25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -5034,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" t="n">
         <v>23</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.639</v>
+        <v>0.622</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
         <v>7.8</v>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="P26" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.778</v>
+        <v>0.775</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="T26" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U26" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="AC26" t="n">
         <v>3.4</v>
       </c>
-      <c r="Z26" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>4</v>
-      </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
         <v>19</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5145,10 +5212,10 @@
         <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
         <v>11</v>
@@ -5160,7 +5227,7 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU26" t="n">
         <v>13</v>
@@ -5172,22 +5239,22 @@
         <v>20</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>13</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
       </c>
       <c r="F27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>0.231</v>
+        <v>0.237</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5237,22 +5304,22 @@
         <v>81</v>
       </c>
       <c r="K27" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L27" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M27" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
       <c r="O27" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="P27" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="Q27" t="n">
         <v>0.791</v>
@@ -5261,46 +5328,46 @@
         <v>10.3</v>
       </c>
       <c r="S27" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T27" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="U27" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V27" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W27" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.1</v>
+        <v>-8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
@@ -5309,13 +5376,13 @@
         <v>14</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
         <v>20</v>
@@ -5327,7 +5394,7 @@
         <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP27" t="n">
         <v>18</v>
@@ -5345,19 +5412,19 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5494,7 +5561,7 @@
         <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
@@ -5527,7 +5594,7 @@
         <v>24</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5539,10 +5606,10 @@
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA28" t="n">
         <v>30</v>
@@ -5551,7 +5618,7 @@
         <v>19</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>19</v>
@@ -5667,19 +5734,19 @@
         <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI29" t="n">
         <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>16</v>
@@ -5688,10 +5755,10 @@
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>24</v>
@@ -5709,19 +5776,19 @@
         <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX29" t="n">
         <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>3.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
         <v>7</v>
@@ -5879,13 +5946,13 @@
         <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AT30" t="n">
         <v>11</v>
@@ -5912,10 +5979,10 @@
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
@@ -6022,34 +6089,34 @@
         <v>-6.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
         <v>21</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
       </c>
       <c r="AM31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN31" t="n">
         <v>30</v>
@@ -6067,7 +6134,7 @@
         <v>10</v>
       </c>
       <c r="AS31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT31" t="n">
         <v>25</v>
@@ -6085,7 +6152,7 @@
         <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-13-2008-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
     </row>
